--- a/Capturas de Venezolanos/Participación_migrantes_crimen.xlsx
+++ b/Capturas de Venezolanos/Participación_migrantes_crimen.xlsx
@@ -1,36 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Capturas de Venezolanos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Barómetro\BX\Capturas de Venezolanos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4ACB1F-F4C2-4507-8F17-F6050822DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A066181E-DC85-4B98-B06E-A424AD57CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Capturas</t>
   </si>
@@ -38,6 +31,9 @@
     <t>Migrantes</t>
   </si>
   <si>
+    <t>Capturas Migrantes</t>
+  </si>
+  <si>
     <t>Amazonas</t>
   </si>
   <si>
@@ -131,16 +127,22 @@
     <t>Vichada</t>
   </si>
   <si>
-    <t>Tasa participación en Crimen</t>
-  </si>
-  <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>TasaparticipaciónenCrimen</t>
+  </si>
+  <si>
+    <t>TasaContenidoRelaciónMigración</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +154,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,29 +191,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -269,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,9 +294,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +346,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,19 +540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -533,58 +562,85 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B2">
+        <v>824</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2/B2</f>
+        <v>2.063106796116505E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2/B2</f>
+        <v>2.1844660194174758E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>212</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3/B3</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/B3</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>214</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="D2">
-        <f>C2/B2</f>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4/B4</f>
+        <v>1.4018691588785047E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/B4</f>
         <v>8.8785046728971959E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>103</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <f>C3/B3</f>
-        <v>6.7961165048543687E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>212</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <f>C4/B4</f>
-        <v>6.6037735849056603E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>188</v>
@@ -593,298 +649,438 @@
         <v>10</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5/B5</f>
+        <v>1.5957446808510637E-2</v>
+      </c>
+      <c r="F5" s="3">
         <f>C5/B5</f>
         <v>5.3191489361702128E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6/B6</f>
+        <v>1.0676156583629894E-2</v>
+      </c>
+      <c r="F6" s="3">
         <f>C6/B6</f>
-        <v>5.1181102362204724E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4234875444839857E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7/B7</f>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="F7" s="3">
         <f>C7/B7</f>
-        <v>4.5751633986928102E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0309278350515464E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>124</v>
+        <v>511</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8/B8</f>
+        <v>5.8708414872798431E-3</v>
+      </c>
+      <c r="F8" s="3">
         <f>C8/B8</f>
-        <v>4.0322580645161289E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.7847358121330719E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B9">
+        <v>153</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <f>D9/B9</f>
+        <v>1.3071895424836602E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>C9/B9</f>
+        <v>4.5751633986928102E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>164</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10/B10</f>
+        <v>1.2195121951219513E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>C10/B10</f>
+        <v>3.048780487804878E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11/B11</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>C11/B11</f>
+        <v>2.3529411764705882E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>254</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <f>C9/B9</f>
-        <v>3.937007874015748E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>322</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <f>C10/B10</f>
-        <v>3.4161490683229816E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>164</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <f>C11/B11</f>
-        <v>3.048780487804878E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>103</v>
-      </c>
       <c r="C12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12/B12</f>
+        <v>3.937007874015748E-3</v>
+      </c>
+      <c r="F12" s="3">
         <f>C12/B12</f>
-        <v>2.9126213592233011E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.1181102362204724E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>404</v>
+        <v>254</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f>D13/B13</f>
+        <v>3.937007874015748E-3</v>
+      </c>
+      <c r="F13" s="3">
         <f>C13/B13</f>
+        <v>3.937007874015748E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>322</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14/B14</f>
+        <v>3.105590062111801E-3</v>
+      </c>
+      <c r="F14" s="3">
+        <f>C14/B14</f>
+        <v>3.4161490683229816E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>404</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D15/B15</f>
+        <v>2.4752475247524753E-3</v>
+      </c>
+      <c r="F15" s="3">
+        <f>C15/B15</f>
         <v>2.4752475247524754E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>210</v>
-      </c>
-      <c r="C14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>427</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <f>D16/B16</f>
+        <v>2.34192037470726E-3</v>
+      </c>
+      <c r="F16" s="3">
+        <f>C16/B16</f>
+        <v>9.3676814988290398E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>351</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17/B17</f>
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="F17" s="3">
+        <f>C17/B17</f>
+        <v>5.6980056980056983E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D18/B18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f>C18/B18</f>
+        <v>6.7961165048543687E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>124</v>
+      </c>
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D14">
-        <f>C14/B14</f>
-        <v>2.3809523809523808E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>170</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <f>C15/B15</f>
-        <v>2.3529411764705882E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>824</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <f>C16/B16</f>
-        <v>2.1844660194174758E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>184</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <f>C17/B17</f>
-        <v>1.6304347826086956E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>281</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <f>C18/B18</f>
-        <v>1.4234875444839857E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>289</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D19/B19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <f>C19/B19</f>
-        <v>1.384083044982699E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0322580645161289E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <f>D20/B20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <f>C20/B20</f>
-        <v>1.0309278350515464E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9126213592233011E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>511</v>
+        <v>210</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21/B21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <f>C21/B21</f>
-        <v>9.7847358121330719E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>427</v>
+        <v>184</v>
       </c>
       <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22/B22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f>C22/B22</f>
+        <v>1.6304347826086956E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>289</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D22">
-        <f>C22/B22</f>
-        <v>9.3676814988290398E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <f>D23/B23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f>C23/B23</f>
+        <v>1.384083044982699E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
         <v>243</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <f>C23/B23</f>
-        <v>8.23045267489712E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>351</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <f>D24/B24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <f>C24/B24</f>
-        <v>5.6980056980056983E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.23045267489712E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>207</v>
@@ -893,13 +1089,20 @@
         <v>1</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f>D25/B25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
         <f>C25/B25</f>
         <v>4.830917874396135E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>394</v>
@@ -908,13 +1111,20 @@
         <v>1</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f>D26/B26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <f>C26/B26</f>
         <v>2.5380710659898475E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>395</v>
@@ -923,13 +1133,20 @@
         <v>1</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f>D27/B27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <f>C27/B27</f>
         <v>2.5316455696202532E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>488</v>
@@ -938,13 +1155,20 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <f>D28/B28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
         <f>C28/B28</f>
         <v>2.0491803278688526E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>310</v>
@@ -953,13 +1177,20 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <f>D29/B29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <f>C29/B29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>426</v>
@@ -968,13 +1199,20 @@
         <v>0</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <f>D30/B30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
         <f>C30/B30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>114</v>
@@ -983,13 +1221,20 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <f>D31/B31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
         <f>C31/B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>213</v>
@@ -998,14 +1243,24 @@
         <v>0</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <f>D32/B32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <f>C32/B32</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
-    <sortCondition descending="1" ref="D2:D32"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:F32" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
+      <sortCondition descending="1" ref="D1:D32"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>